--- a/UR/Sprint1/UR-V1.0.xlsx
+++ b/UR/Sprint1/UR-V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,15 +13,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>ATMore</t>
+  </si>
+  <si>
+    <t>Login Form</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Forget password</t>
+  </si>
+  <si>
+    <t>Active Code</t>
+  </si>
+  <si>
+    <t>Resend active code</t>
+  </si>
+  <si>
+    <t>Sign up form</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When sign up or login success </t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Term condition</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Sign Up Form</t>
+  </si>
+  <si>
+    <t>Avartar</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -40,19 +120,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>522267</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>84979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="3114675"/>
+          <a:ext cx="12866667" cy="5971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +433,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +641,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="I3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="I6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="I11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="17"/>
+      <c r="E32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I3:K3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>